--- a/examples/network/dtu42380a2/project2_data_final.xlsx
+++ b/examples/network/dtu42380a2/project2_data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edxu96/GitHub/MatrixOptim.jl/examples/network/dtu42380a2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98A0668-1149-0344-8A20-CC55045BC1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC86ADF-40DC-774E-B4CA-0BCB3771D4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="560" windowWidth="30640" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29880" yWindow="1420" windowWidth="35400" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,6 +633,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6581,8 +6590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="L6" sqref="L2:L6"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7254,10 +7263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728D9E46-A069-46B3-BCA1-E900DD7B0A68}">
-  <dimension ref="B1:V38"/>
+  <dimension ref="B1:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="138" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7419,7 +7428,7 @@
       <c r="U3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="51">
         <f>SUM(S3:S32)</f>
         <v>945000</v>
       </c>
@@ -7488,7 +7497,7 @@
       <c r="U4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="20">
+      <c r="V4" s="51">
         <f>SUMPRODUCT(H28:M32,data!$C$9:$H$13)+SUMPRODUCT(H23:M27,data!$C$9:$H$13)+SUMPRODUCT(H18:M22,data!$C$9:$H$13)+SUMPRODUCT(H13:M17,data!$C$9:$H$13)+SUMPRODUCT(H8:M12,data!$C$9:$H$13)+SUMPRODUCT(H3:M7,data!$C$9:$H$13)</f>
         <v>12059287.5</v>
       </c>
@@ -7557,7 +7566,7 @@
       <c r="U5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="51">
         <f>SUM(P3:P32)</f>
         <v>5911327.5</v>
       </c>
@@ -7626,7 +7635,7 @@
       <c r="U6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="51">
         <f>SUM(H3:M32)*data!C15</f>
         <v>13915125</v>
       </c>
@@ -7695,7 +7704,7 @@
       <c r="U7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="52">
         <f>V3+V4+V5-V6</f>
         <v>5000490</v>
       </c>
@@ -9468,6 +9477,25 @@
         <v>0</v>
       </c>
       <c r="N38" s="24"/>
+    </row>
+    <row r="42" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="H42" s="3">
+        <f>SUM(H33:M35)</f>
+        <v>18553500</v>
+      </c>
+      <c r="I42" s="53">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="J42" s="2">
+        <f>H42*I42</f>
+        <v>13915125</v>
+      </c>
+    </row>
+    <row r="45" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="J45" s="2">
+        <v>13915125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
